--- a/Config/魔法神灯.xlsx
+++ b/Config/魔法神灯.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="25440" windowHeight="9270" tabRatio="866" activeTab="13"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="866" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="说明" sheetId="1" r:id="rId1"/>
@@ -4090,8 +4090,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -4188,9 +4188,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4202,17 +4216,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4225,39 +4231,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4270,7 +4246,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4286,7 +4262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4294,6 +4270,53 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4308,33 +4331,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4551,7 +4551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4563,7 +4569,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4575,19 +4599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4605,7 +4623,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4617,7 +4689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4629,79 +4701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4810,58 +4810,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4884,8 +4834,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4904,163 +4889,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="61" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="54" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="54" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="44" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="58" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -13857,7 +13857,7 @@
   </sheetPr>
   <dimension ref="A1:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -18726,10 +18726,10 @@
   <sheetPr/>
   <dimension ref="A1:R163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:K163"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18878,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="117">
-        <v>2290</v>
+        <v>2290444</v>
       </c>
       <c r="I3" s="117" t="s">
         <v>79</v>
@@ -35443,7 +35443,7 @@
   <dimension ref="A1:R235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q237" sqref="Q237"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35535,7 +35535,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="112">
-        <v>2260</v>
+        <v>233412</v>
       </c>
       <c r="J2" s="112" t="s">
         <v>77</v>
